--- a/biology/Médecine/Diplégie_spastique/Diplégie_spastique.xlsx
+++ b/biology/Médecine/Diplégie_spastique/Diplégie_spastique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diplégie spastique, aussi connue sous le nom de maladie (ou syndrome) de Little, est une forme de paralysie cérébrale infantile. 
 Elle est définie par une paralysie de type spastique plus ou moins importante des deux membres inférieurs (hanches, jambe et bassins principalement). Ainsi que d’une atteinte des bras et du visage, plus discrète. 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs formes de sévérité, les symptômes sont donc différents d’un nourrisson à l’autre.
 Puisqu’il s’agit d’une paralysie cérébrale, les symptômes apparaissent tôt chez le nourrisson et la maladie est souvent détectée vers l’âge de 6 mois.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Diagnostic et examens médicaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de la diplégie spastique doit être réalisé au plut tôt après la naissance. En effet, la prise en charge sera meilleure si la maladie est reconnue rapidement.
 Un premier examen permet d’évaluer l’enfant lorsqu’il se trouve dans différentes situations pour lesquelles une motricité normale est requise. Cet examen neuromoteur donne donc des renseignements sur la capacité du bébé à se mouvoir.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La diplégie spastique est généralement la conséquence de lésions de la substance blanche, présente dans le cerveau. Ces lésions se situent au niveau des territoires vasculaires. Elles apparaissent avant la naissance, pendant l’accouchement ou dans les premiers moments de la naissance.
 Dans la colonne vertébrale il y a de nombreux récepteurs nerveux musculaires. Dans le cas de la diplégie, ces récepteurs ont l’incapacité d’absorber de façon normale le GABA. C’est un acide aminé, qui joue un rôle dans la régulation du tonus musculaire. On dit que c’est un neurotransmetteur dit « inhibiteur ». Grâce à son action, un signal de décontraction est envoyé aux muscles. Sans absorption de GABA, les nerfs affectés envoient en permanence un message de contraction. Les muscles sont donc en état permanent hypertonique. Ce dysfonctionnement crée des difficultés dans la réalisation de mouvement volontaire et passif (au niveau des jambes). Il peut également y avoir des douleurs associées en fonction de la gravité de la maladie.
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>À ce jour, il n'existe pas de traitement permettant de guérir totalement cette maladie. Mais des traitements permettent d’améliorer la vie des patients.
 Il existe une prise en charge rééducative.
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dipl%C3%A9gie_spastique</t>
+          <t>Diplégie_spastique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Évolutions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus souvent les paralysies cérébrales ne sont pas des maladies évolutives. C’est également le cas pour la diplégie spastique.
 En effet les nerfs atteints sont endommagés dès la naissance et ne se dégradent ou ne se rétablissent pas.
